--- a/medicine/Maladie à coronavirus 2019/Comité_analyse_recherche_et_expertise/Comité_analyse_recherche_et_expertise.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Comité_analyse_recherche_et_expertise/Comité_analyse_recherche_et_expertise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_analyse_recherche_et_expertise</t>
+          <t>Comité_analyse_recherche_et_expertise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité analyse recherche et expertise (CARE) est un comité créé le 24 mars 2020 par le Gouvernement français afin de le conseiller dans la lutte contre la pandémie de Covid-19 en cours dans le pays. Il est constitué de douze personnalités scientifiques et médecins. Le CARE travaille avec le conseil scientifique constitué le 11 mars 2020 sous l'égide du ministère de la Santé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_analyse_recherche_et_expertise</t>
+          <t>Comité_analyse_recherche_et_expertise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Françoise Barré-Sinoussi, virologue, présidente[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Françoise Barré-Sinoussi, virologue, présidente
 Jean-Philippe Spano
 Yazdan Yazdanpanah, infectiologue, membre du conseil scientifique
-Franck Molina, bio-informaticien, directeur de l'unité mixte de recherche Sys2Diag (CNRS, ALCEN)[2]
+Franck Molina, bio-informaticien, directeur de l'unité mixte de recherche Sys2Diag (CNRS, ALCEN)
 Dominique Valeyre
 Bertrand Thirion
 Sylviane Muller, immunologiste
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_analyse_recherche_et_expertise</t>
+          <t>Comité_analyse_recherche_et_expertise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Avis sur l'utilisation de l'hydroxychloroquine et de l'azithromycine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'avis[Lequel ?] sur la recommandation de l'utilisation de l'hydroxychloroquine seule et pour des cas sévères et sans l'azithromycine est controversé[3].
-Par ailleurs, il semble que ce « comité analyse recherche et expertise » attende beaucoup des résultats de l'essai clinique Discovery lancé en Europe. Or cet essai fait l’objet d’une controverse, liée à celle sur l'hydroxychloroquine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avis[Lequel ?] sur la recommandation de l'utilisation de l'hydroxychloroquine seule et pour des cas sévères et sans l'azithromycine est controversé.
+Par ailleurs, il semble que ce « comité analyse recherche et expertise » attende beaucoup des résultats de l'essai clinique Discovery lancé en Europe. Or cet essai fait l’objet d’une controverse, liée à celle sur l'hydroxychloroquine.
 </t>
         </is>
       </c>
